--- a/585896156_in.xlsx
+++ b/585896156_in.xlsx
@@ -471,11 +471,7 @@
           <t>12.09.2023</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
